--- a/archive/Datos_clientes.xlsx
+++ b/archive/Datos_clientes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio Analitica\Analisis de Grandes Datos\AGD_ArquitecturaInformacion\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6EE74C4A-6291-4FA6-BB38-2FB05B74459E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9AF6AE-3E45-4478-9695-502122AAA4D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_clientes_origen" sheetId="1" r:id="rId1"/>
     <sheet name="Datos_clientes_actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -608,7 +619,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1443,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2424,16 +2435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2443,11 +2454,11 @@
       <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2457,18 +2468,18 @@
       <c r="C2">
         <v>23535</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>192</v>
       </c>
-      <c r="G2" t="str">
-        <f>+CONCATENATE("INSERT INTO ",$F$2," (",$A$1,",",$B$1,",",$C$1,") VALUES ('",A2,"','",B2,"','",C2,"')")</f>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('9561fb5984d862e686beec844488550f','c896a03511f04a65568335fcf3fad642','23535')</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" t="str">
+        <f>+CONCATENATE("INSERT INTO ",$G$2," (",$A$1,",",$B$1,",",$C$1,") VALUES ('",A2,"','",B2,"','",C2,"');")</f>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('9561fb5984d862e686beec844488550f','c896a03511f04a65568335fcf3fad642','23535');</v>
+      </c>
+      <c r="I2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2478,12 +2489,12 @@
       <c r="C3">
         <v>15053</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G48" si="0">+CONCATENATE("INSERT INTO ",$F$2," (",$A$1,",",$B$1,",",$C$1,") VALUES ('",A3,"','",B3,"','",C3,"','","')")</f>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ad1e6b608a4dca0dd25bf862939cf3aa','28a1eefd99d5c12b18c9e601df9e811f','15053','')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H48" si="0">+CONCATENATE("INSERT INTO ",$G$2," (",$A$1,",",$B$1,",",$C$1,") VALUES ('",A3,"','",B3,"','",C3,"');")</f>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ad1e6b608a4dca0dd25bf862939cf3aa','28a1eefd99d5c12b18c9e601df9e811f','15053');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2493,12 +2504,12 @@
       <c r="C4">
         <v>21830</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ebf7e7691b7e62b2df6bbb5621bf6557','b2830cdace9a7b48c770d307caa2a222','21830','')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ebf7e7691b7e62b2df6bbb5621bf6557','b2830cdace9a7b48c770d307caa2a222','21830');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2508,12 +2519,12 @@
       <c r="C5">
         <v>22450</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('5bb8de60ca2ca8b01a5ce471802fe10b','75a8009b779f5925f34196f17b19962a','22450','')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('5bb8de60ca2ca8b01a5ce471802fe10b','75a8009b779f5925f34196f17b19962a','22450');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2523,12 +2534,12 @@
       <c r="C6">
         <v>26950</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db13a417a95ad304e9674468c17ade85','70f81beee33fd4ac0ebf59d61dee4b1e','26950','')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db13a417a95ad304e9674468c17ade85','70f81beee33fd4ac0ebf59d61dee4b1e','26950');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2538,12 +2549,12 @@
       <c r="C7">
         <v>27580</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('44e8a890084067f1ccc9689987c6d001','5f435bbe57e905e19378fa56b60e9d16','27580','')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('44e8a890084067f1ccc9689987c6d001','5f435bbe57e905e19378fa56b60e9d16','27580');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2553,12 +2564,12 @@
       <c r="C8">
         <v>9051</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('fb68a5552994d81243302fe6a15291a1','18c76b8716ed445f9fed650f3bce9e73','9051','')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('fb68a5552994d81243302fe6a15291a1','18c76b8716ed445f9fed650f3bce9e73','9051');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2568,12 +2579,12 @@
       <c r="C9">
         <v>86604</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('2450926e09ca55f960204a2789ed4943','a15a39c94a1934b7e64a5e10c5f9b9d6','86604','')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('2450926e09ca55f960204a2789ed4943','a15a39c94a1934b7e64a5e10c5f9b9d6','86604');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2583,12 +2594,12 @@
       <c r="C10">
         <v>5330</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db859dc699009191be7005581c73865d','403da270f61ac988b1ab9c5daaa4612c','5330','')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db859dc699009191be7005581c73865d','403da270f61ac988b1ab9c5daaa4612c','5330');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2598,12 +2609,12 @@
       <c r="C11">
         <v>45208</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('9d53af6298240d4573ca6e52bcfa6c63','b110d5017bf181177474511359c81f46','45208','')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('9d53af6298240d4573ca6e52bcfa6c63','b110d5017bf181177474511359c81f46','45208');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2613,12 +2624,12 @@
       <c r="C12">
         <v>14180</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('79e2cae59c2216c721c54ff9c53ad657','070742717e9b0a917f0823213f3669b2','14180','')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('79e2cae59c2216c721c54ff9c53ad657','070742717e9b0a917f0823213f3669b2','14180');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2628,12 +2639,12 @@
       <c r="C13">
         <v>31742</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('be59c56551fe3cef6d7019c7ab1fddb0','496048de8070b6f462aab213d0f54750','31742','')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('be59c56551fe3cef6d7019c7ab1fddb0','496048de8070b6f462aab213d0f54750','31742');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2643,12 +2654,12 @@
       <c r="C14">
         <v>41230</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('3fecd6727aed19735e06945b7c3e49c9','f51a647a551b866c440921b7f2b5683f','41230','')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('3fecd6727aed19735e06945b7c3e49c9','f51a647a551b866c440921b7f2b5683f','41230');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -2658,12 +2669,12 @@
       <c r="C15">
         <v>64980</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('c17d38e818f10c91ebcd036bc835a648','3b81cc8417be691f3159596da7e08a3c','64980','')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('c17d38e818f10c91ebcd036bc835a648','3b81cc8417be691f3159596da7e08a3c','64980');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2673,12 +2684,12 @@
       <c r="C16">
         <v>39480</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ef4b4f3a32448a53c0692f135e4e9bbb','d806b2a50d10abd760f44162c49eea48','39480','')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ef4b4f3a32448a53c0692f135e4e9bbb','d806b2a50d10abd760f44162c49eea48','39480');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2688,12 +2699,12 @@
       <c r="C17">
         <v>27345</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('e494ff798e6549f9ba9747f00f5681c2','a2b04fc2ec07fc6fbbdfbf8fd1fe5a30','27345','')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('e494ff798e6549f9ba9747f00f5681c2','a2b04fc2ec07fc6fbbdfbf8fd1fe5a30','27345');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2703,12 +2714,12 @@
       <c r="C18">
         <v>7175</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('e545e697bb9d1b81e0a702121d4e94d5','cdbbafa842e30d5e79dcef5bdc118831','7175','')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('e545e697bb9d1b81e0a702121d4e94d5','cdbbafa842e30d5e79dcef5bdc118831','7175');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -2718,12 +2729,12 @@
       <c r="C19">
         <v>81130</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('a72c88547dfde272c230dc57c9f04dda','b9d44225456385fdb50e1446fb599921','81130','')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('a72c88547dfde272c230dc57c9f04dda','b9d44225456385fdb50e1446fb599921','81130');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2733,12 +2744,12 @@
       <c r="C20">
         <v>2435</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('529d3f46584a8fa9027777a9c7d5a1fc','e1881c7d99c20ca24a49cf18f115db40','2435','')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('529d3f46584a8fa9027777a9c7d5a1fc','e1881c7d99c20ca24a49cf18f115db40','2435');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2748,12 +2759,12 @@
       <c r="C21">
         <v>93260</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('30e6e854c81fa16f46a5d7f3ab025e6f','660786ed04a09347d8820938113f1df7','93260','')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('30e6e854c81fa16f46a5d7f3ab025e6f','660786ed04a09347d8820938113f1df7','93260');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -2763,12 +2774,12 @@
       <c r="C22">
         <v>39401</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db3234528c502acda9991fd53d7223d6','ac28756ae14e9bab4d0da284e2ed0724','39401','')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('db3234528c502acda9991fd53d7223d6','ac28756ae14e9bab4d0da284e2ed0724','39401');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2778,12 +2789,12 @@
       <c r="C23">
         <v>18210</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('05929b58add0a2e46bb430439b7130a9','3cb7760625ccc233fab4e975e0a9c5c1','18210','')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('05929b58add0a2e46bb430439b7130a9','3cb7760625ccc233fab4e975e0a9c5c1','18210');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2793,12 +2804,12 @@
       <c r="C24">
         <v>45960</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ce3e77ff426cf554944d321064dd87f2','cca20bbdb16d521c1f94eaf7209717b6','45960','')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ce3e77ff426cf554944d321064dd87f2','cca20bbdb16d521c1f94eaf7209717b6','45960');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2808,12 +2819,12 @@
       <c r="C25">
         <v>3704</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('b65dda35fa1e480e28ded92bd5efe474','1bcf153b346692b403d5454e3bd3a209','3704','')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('b65dda35fa1e480e28ded92bd5efe474','1bcf153b346692b403d5454e3bd3a209','3704');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2823,12 +2834,12 @@
       <c r="C26">
         <v>36135</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('61a1d82e44d450a06016bb941595446d','37de7bc494e562febe3514ba1ef16d14','36135','')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('61a1d82e44d450a06016bb941595446d','37de7bc494e562febe3514ba1ef16d14','36135');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2838,12 +2849,12 @@
       <c r="C27">
         <v>21870</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('29a48e3e901b5187dae9af8a5563c795','e0faaaa5e888cd42e05f697c6dcb398f','21870','')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('29a48e3e901b5187dae9af8a5563c795','e0faaaa5e888cd42e05f697c6dcb398f','21870');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2853,12 +2864,12 @@
       <c r="C28">
         <v>18053</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('0315a87fba4dab4865f2071777b98e87','ea86add4caaaf87ef892d12ca1033012','18053','')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('0315a87fba4dab4865f2071777b98e87','ea86add4caaaf87ef892d12ca1033012','18053');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2868,12 +2879,12 @@
       <c r="C29">
         <v>15807</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('1b4fbf469a7ab0237b99420da733202e','01e4cddc3a56ea6684510cf09f4d0411','15807','')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('1b4fbf469a7ab0237b99420da733202e','01e4cddc3a56ea6684510cf09f4d0411','15807');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -2883,12 +2894,12 @@
       <c r="C30">
         <v>36415</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('1f5856eeda57cbd78ba0dcdddd0439e4','b35fe73d885d2fb911e95249814c5785','36415','')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('1f5856eeda57cbd78ba0dcdddd0439e4','b35fe73d885d2fb911e95249814c5785','36415');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -2898,12 +2909,12 @@
       <c r="C31">
         <v>27933</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('2438ba50f3a77cbfd3377900835fb526','8a83acf0dd42f798fb6f421ee13e11b4','27933','')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('2438ba50f3a77cbfd3377900835fb526','8a83acf0dd42f798fb6f421ee13e11b4','27933');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -2913,12 +2924,12 @@
       <c r="C32">
         <v>30260</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('d80952ace947b1e43b7a5d279da00cd3','544b0803441f99ed0fe77314e956ab76','30260','')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('d80952ace947b1e43b7a5d279da00cd3','544b0803441f99ed0fe77314e956ab76','30260');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2928,12 +2939,12 @@
       <c r="C33">
         <v>35460</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('63572a1269de35c881dc1ca268e20fa0','862c48ca034901de6c270480e9aee0c2','35460','')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('63572a1269de35c881dc1ca268e20fa0','862c48ca034901de6c270480e9aee0c2','35460');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -2943,12 +2954,12 @@
       <c r="C34">
         <v>9613</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ccafbef5836bb3f6604cd55c75d54b4b','37787985ad57f421268d1da9e9555eea','9613','')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ccafbef5836bb3f6604cd55c75d54b4b','37787985ad57f421268d1da9e9555eea','9613');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2958,12 +2969,12 @@
       <c r="C35">
         <v>3044</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('cd6b3de9793104fb781a4908b6f8a0e6','9f72a61e924e76354ec3822192786c12','3044','')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('cd6b3de9793104fb781a4908b6f8a0e6','9f72a61e924e76354ec3822192786c12','3044');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -2973,12 +2984,12 @@
       <c r="C36">
         <v>1230</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('8342323ca97ec421480430c2a893aca2','4d76ce9a79540306c7c6a2f94bbd611b','1230','')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('8342323ca97ec421480430c2a893aca2','4d76ce9a79540306c7c6a2f94bbd611b','1230');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -2988,12 +2999,12 @@
       <c r="C37">
         <v>3807</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ef1ed1347404166e73e8f3977ffcbca0','21effa61d72771ba8315ab56ce7fb7ac','3807','')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('ef1ed1347404166e73e8f3977ffcbca0','21effa61d72771ba8315ab56ce7fb7ac','3807');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3003,12 +3014,12 @@
       <c r="C38">
         <v>21330</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('05e86ce92eb1b627c2296627078d237c','480ca1a9f688a4c482177efdeeb5c3a3','21330','')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('05e86ce92eb1b627c2296627078d237c','480ca1a9f688a4c482177efdeeb5c3a3','21330');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3018,12 +3029,12 @@
       <c r="C39">
         <v>11420</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('91c6fb2b7b643426eb8f72f1a3e422d1','04d5d81451e0a6378b103c143688ae23','11420','')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('91c6fb2b7b643426eb8f72f1a3e422d1','04d5d81451e0a6378b103c143688ae23','11420');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -3033,12 +3044,12 @@
       <c r="C40">
         <v>29150</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('87c10876090200b63f130ffb699b2e82','f63995310ef953fe62d42ed1a1a7f973','29150','')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('87c10876090200b63f130ffb699b2e82','f63995310ef953fe62d42ed1a1a7f973','29150');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -3048,12 +3059,12 @@
       <c r="C41">
         <v>9931</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('12a063cae60cd7bc2f0029514b21d24c','672b26e7ff626fde67fe227d535780ba','9931','')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('12a063cae60cd7bc2f0029514b21d24c','672b26e7ff626fde67fe227d535780ba','9931');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -3063,12 +3074,12 @@
       <c r="C42">
         <v>13190</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('d2aa6bef2582c7482ab992fa89f965bd','08b2a675de579ef181675f82c081fca6','13190','')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('d2aa6bef2582c7482ab992fa89f965bd','08b2a675de579ef181675f82c081fca6','13190');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -3078,12 +3089,12 @@
       <c r="C43">
         <v>86056</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('fddbbeff104817044cfe82a0c122f473','24a97b56158eb5f55b2840923c8c90d9','86056','')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('fddbbeff104817044cfe82a0c122f473','24a97b56158eb5f55b2840923c8c90d9','86056');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -3093,12 +3104,12 @@
       <c r="C44">
         <v>56328</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('20a92c393edb6c08801eef97295257f7','17b0188c89ac68aa7fcc43c9d48fd3ff','56328','')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('20a92c393edb6c08801eef97295257f7','17b0188c89ac68aa7fcc43c9d48fd3ff','56328');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3108,12 +3119,12 @@
       <c r="C45">
         <v>7055</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('659ded3e9b43aaf51cf9586d03033b46','57b1099bb38ee91578d2f1c3ee154082','7055','')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('659ded3e9b43aaf51cf9586d03033b46','57b1099bb38ee91578d2f1c3ee154082','7055');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
@@ -3123,12 +3134,12 @@
       <c r="C46">
         <v>20271</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('15652e306d7c3e9098df857da0db3201','da8618694dda57a7eb9be2611e110f35','20271','')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('15652e306d7c3e9098df857da0db3201','da8618694dda57a7eb9be2611e110f35','20271');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -3138,12 +3149,12 @@
       <c r="C47">
         <v>14110</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('b51db50e74624ee11ec905f6c8cb92c2','a2ba94a4e9d0ab6b5942c6210bd5d16e','14110','')</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('b51db50e74624ee11ec905f6c8cb92c2','a2ba94a4e9d0ab6b5942c6210bd5d16e','14110');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -3153,9 +3164,9 @@
       <c r="C48">
         <v>2409</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('0f3c16514be9fe9bdb840983701d2ce6','a8a5dafb6ee0d2f70241b74f6123374c','2409','')</v>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO cliente (customer_id,customer_unique_id,zip_code_prefix) VALUES ('0f3c16514be9fe9bdb840983701d2ce6','a8a5dafb6ee0d2f70241b74f6123374c','2409');</v>
       </c>
     </row>
   </sheetData>
